--- a/sputnik/personal/uch/uch92.xlsx
+++ b/sputnik/personal/uch/uch92.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Оплата членского взноса</t>
   </si>
   <si>
@@ -37,6 +34,15 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №92</t>
+  </si>
+  <si>
+    <t>Оплачен аванс  членского взноса 2020</t>
   </si>
 </sst>
 </file>
@@ -151,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -173,13 +179,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -490,7 +499,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -505,9 +514,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -520,7 +531,7 @@
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5">
         <v>8689.17</v>
@@ -532,7 +543,7 @@
         <v>43366</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -544,7 +555,7 @@
         <v>43586</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7">
         <v>8565.81</v>
@@ -556,7 +567,7 @@
         <v>43649</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8">
@@ -564,10 +575,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="14">
+        <v>43860</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="9">
+        <v>2000</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -576,9 +593,6 @@
       <c r="D8" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch92.xlsx
+++ b/sputnik/personal/uch/uch92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -189,6 +189,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -499,7 +502,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -587,10 +590,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="14">
+        <v>43949</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch92.xlsx
+++ b/sputnik/personal/uch/uch92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Оплачен аванс  членского взноса 2020</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -192,6 +195,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -499,10 +503,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -599,6 +603,17 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9">
         <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>43952</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9637.5</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch92.xlsx
+++ b/sputnik/personal/uch/uch92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -69,7 +69,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,7 +78,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,33 +181,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -503,10 +519,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -520,10 +536,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -534,87 +550,118 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="16">
         <v>43221</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="18">
         <v>8689.17</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="16">
         <v>43366</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18">
         <v>8689.17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="7">
         <v>43586</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>8565.81</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="7">
         <v>43649</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
         <v>8565.81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="11">
         <v>43860</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13">
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="11">
         <v>43949</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13">
         <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="11">
         <v>43952</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="15">
         <v>9637.5</v>
       </c>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>44074</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15">
+        <v>5637.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch92.xlsx
+++ b/sputnik/personal/uch/uch92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -212,6 +212,8 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -522,7 +524,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -646,10 +648,16 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="19">
+        <v>44130</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="20">
+        <v>2000</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>

--- a/sputnik/personal/uch/uch92.xlsx
+++ b/sputnik/personal/uch/uch92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2021</t>
   </si>
 </sst>
 </file>
@@ -69,7 +72,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +97,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -172,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -212,8 +221,12 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -524,7 +537,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -648,14 +661,14 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="20">
         <v>44130</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="20">
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22">
         <v>2000</v>
       </c>
     </row>

--- a/sputnik/personal/uch/uch92.xlsx
+++ b/sputnik/personal/uch/uch92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -537,7 +537,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -673,10 +673,16 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="20">
+        <v>44215</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22">
+        <v>2000</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>

--- a/sputnik/personal/uch/uch92.xlsx
+++ b/sputnik/personal/uch/uch92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
   <si>
-    <t>Оплата членского взноса 2021</t>
+    <t>Оплата членского взноса 2021/2022</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -190,7 +190,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,10 +533,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B12" sqref="B12:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -551,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -565,130 +564,160 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>43221</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>8689.17</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>43366</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17">
         <v>8689.17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>43586</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>8565.81</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>43649</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
         <v>8565.81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>43860</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12">
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>43949</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12">
         <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>43952</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>9637.5</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>44074</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14">
         <v>5637.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>44130</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22">
+      <c r="C11" s="20"/>
+      <c r="D11" s="21">
         <v>2000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>44215</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22">
+      <c r="C12" s="20"/>
+      <c r="D12" s="21">
         <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="19">
+        <v>44256</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>44277</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>44315</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch92.xlsx
+++ b/sputnik/personal/uch/uch92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Оплата членского взноса 2021/2022</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -181,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -226,6 +229,8 @@
     <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -533,10 +538,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B15"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -718,6 +723,54 @@
       <c r="D15" s="21">
         <v>2000</v>
       </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>44347</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>44317</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="23">
+        <v>10277.43</v>
+      </c>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch92.xlsx
+++ b/sputnik/personal/uch/uch92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2022/2023</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -231,6 +234,12 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -538,10 +547,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -733,44 +742,68 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21">
+        <v>277.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>44347</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27">
+        <v>552.57000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>44317</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="23">
+        <v>10277.43</v>
+      </c>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>44372</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27">
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>44317</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="23">
-        <v>10277.43</v>
-      </c>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-    </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="24">
+        <v>44403</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27">
+        <v>2000</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch92.xlsx
+++ b/sputnik/personal/uch/uch92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -550,7 +550,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D16" sqref="D11:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -794,10 +794,16 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="24">
+        <v>44434</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27">
+        <v>1000</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>

--- a/sputnik/personal/uch/uch92.xlsx
+++ b/sputnik/personal/uch/uch92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -550,7 +550,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D11:D16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -806,10 +806,16 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="24">
+        <v>44466</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch92.xlsx
+++ b/sputnik/personal/uch/uch92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -547,10 +547,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -814,6 +814,18 @@
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>44501</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27">
         <v>1000</v>
       </c>
     </row>

--- a/sputnik/personal/uch/uch92.xlsx
+++ b/sputnik/personal/uch/uch92.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -78,7 +78,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +109,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -234,12 +240,12 @@
     <xf numFmtId="2" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -547,10 +553,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -826,6 +832,18 @@
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>44524</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27">
         <v>1000</v>
       </c>
     </row>
